--- a/Thiết kế/Thiết kế giao diện/Phạm Huy/XemThongtinDonHang.xlsx
+++ b/Thiết kế/Thiết kế giao diện/Phạm Huy/XemThongtinDonHang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huy/Downloads/CNPM/Thiết kế/Thiết kế giao diện/Phạm Huy Thiết kế/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Thiết kế\Thiết kế giao diện\Phạm Huy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3830C07-523F-0244-B0E1-0A34B144F8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2D1D52-9D98-4E57-9FA9-80FD386F5BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1920" windowWidth="27640" windowHeight="16940" xr2:uid="{9B6D3002-2983-6C44-9B75-FEBA18C879D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B6D3002-2983-6C44-9B75-FEBA18C879D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -854,19 +845,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC25B8B2-4ED4-6D4F-9842-9178ADD52D52}">
   <dimension ref="A18:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" customWidth="1"/>
-    <col min="3" max="3" width="76.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.875" customWidth="1"/>
+    <col min="3" max="3" width="76.875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -874,7 +865,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -888,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -900,9 +891,9 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -912,8 +903,8 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -924,7 +915,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -947,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -964,7 +955,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -981,7 +972,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -998,7 +989,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -1015,7 +1006,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -1032,7 +1023,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -1049,7 +1040,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -1066,7 +1057,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="39" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
